--- a/xlsx/nor_oda_srhr_tenyear.xlsx
+++ b/xlsx/nor_oda_srhr_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på sektorer, 2016-2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Bistand fordelt på sektorer, 2016-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,32 @@
         <v>0.8476</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Øremerket støtte til SRHR</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>0.7426002263710001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2024</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Multilateral kjernestøtte til SRHR (beregnet)</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1.0031</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/nor_oda_srhr_tenyear.xlsx
+++ b/xlsx/nor_oda_srhr_tenyear.xlsx
@@ -412,7 +412,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.17765577423</v>
+        <v>0.34565577423</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.312657241642</v>
+        <v>0.481889241642</v>
       </c>
     </row>
     <row r="5">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.433104562251</v>
+        <v>0.6011045622510001</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.417510044837</v>
+        <v>0.585510044837</v>
       </c>
     </row>
     <row r="9">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.422771103519</v>
+        <v>0.644771103519</v>
       </c>
     </row>
     <row r="11">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.974259</v>
+        <v>0.880143</v>
       </c>
     </row>
     <row r="12">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.096941</v>
+        <v>0.894849</v>
       </c>
     </row>
     <row r="14">

--- a/xlsx/nor_oda_srhr_tenyear.xlsx
+++ b/xlsx/nor_oda_srhr_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand fordelt på sektorer, 2016-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Bistand til seksuell og reproduktiv helse og rettigheter (SRHR), 2016-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_srhr_tenyear.xlsx
+++ b/xlsx/nor_oda_srhr_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til seksuell og reproduktiv helse og rettigheter (SRHR), 2016-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand til seksuell og reproduktiv helse og rettigheter (SRHR). 2016-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
